--- a/crypto prices.xlsx
+++ b/crypto prices.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\DS 501\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\Documents\DS501\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" xr2:uid="{535A3932-3996-4FFF-AC59-664373BA3DB2}"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="38400" windowHeight="17610" xr2:uid="{535A3932-3996-4FFF-AC59-664373BA3DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,1270 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crypto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Relative Prices</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6433416463511457E-2"/>
+          <c:y val="0.11122060746810745"/>
+          <c:w val="0.94407666657326195"/>
+          <c:h val="0.83921809848713658"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1022303908092863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.787776442527969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.8494361842225944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13.522415178910387</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.460498859801394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5449625737332857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.7087191812562432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.1043249003144426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.5908977853180168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F1B-46F8-A26A-2244036D3ED7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ETH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$13:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6049678288193938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.086637737543022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.0977106090079278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13.968277719587013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14.024390243902433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4240610504264617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.7709112673948804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.8219362561723722</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.5702528804429132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F1B-46F8-A26A-2244036D3ED7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XRP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1846153846153809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.6358974358974372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.4205128205128297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.67692307692308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.820512820512816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.358974358974363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.3076923076923173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.2564102564102537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.4820512820512839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0F1B-46F8-A26A-2244036D3ED7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$13:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0979510244877577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16.708312510411464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-14.092953523238382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-21.355988672330501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25.020822921872405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.043978010994509</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-14.49275362318841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13.110111610861244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-17.941029485257374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0F1B-46F8-A26A-2244036D3ED7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Namecoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$13:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7164179104477499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.686567164179099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2238805970149302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14.925373134328371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-31.343283582089555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-27.313432835820901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.7014925373134417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.7014925373134417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-14.179104477611951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0F1B-46F8-A26A-2244036D3ED7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="380860984"/>
+        <c:axId val="380861640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="380860984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="380861640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="380861640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% change</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380860984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>84136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CD3C3A-B0C4-4E9A-A8B9-44912CCA1350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -191,7 +1454,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -240,7 +1503,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -289,7 +1552,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -338,7 +1601,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -684,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84E35BA-E282-44AF-A38C-C8FD92A2D4C7}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,8 +2218,230 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>(C2-$C$2)/($C$2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>(D2-$D$2)/$D$2*100</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>(E2-$E$2)/$E$2*100</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>(F2-$F$2)/$F$2*100</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>(G2-$G$2)/$G$2*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" ref="C14:C22" si="0">(C3-$C$2)/($C$2)*100</f>
+        <v>3.1022303908092863</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D22" si="1">(D3-$D$2)/$D$2*100</f>
+        <v>4.6049678288193938</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E22" si="2">(E3-$E$2)/$E$2*100</f>
+        <v>3.1846153846153809</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F22" si="3">(F3-$F$2)/$F$2*100</f>
+        <v>4.0979510244877577</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G22" si="4">(G3-$G$2)/$G$2*100</f>
+        <v>6.7164179104477499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-8.787776442527969</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-12.086637737543022</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>-9.6358974358974372</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>-16.708312510411464</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>12.686567164179099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-7.8494361842225944</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-9.0977106090079278</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>-8.4205128205128297</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>-14.092953523238382</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>-5.2238805970149302</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-13.522415178910387</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-13.968277719587013</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>-10.67692307692308</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>-21.355988672330501</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>-14.925373134328371</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-12.460498859801394</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-14.024390243902433</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>-12.820512820512816</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>-25.020822921872405</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>-31.343283582089555</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-1.5449625737332857</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-2.4240610504264617</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>-4.358974358974363</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>-12.043978010994509</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>-27.313432835820901</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-4.7087191812562432</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-6.7709112673948804</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>-8.3076923076923173</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>-14.49275362318841</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>-9.7014925373134417</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-3.1043249003144426</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-4.8219362561723722</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>-7.2564102564102537</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>-13.110111610861244</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>-9.7014925373134417</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-6.5908977853180168</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-8.5702528804429132</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>-9.4820512820512839</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>-17.941029485257374</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>-14.179104477611951</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -977,7 +2462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0DE302-FDDE-4987-AB54-625498B049EA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -990,7 +2475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F957E2-AF68-466A-B2C9-32984042D328}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/crypto prices.xlsx
+++ b/crypto prices.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\Documents\DS501\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\Documents\GitHub\DS501\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,6 +19,28 @@
     <sheet name="LTC" sheetId="4" r:id="rId5"/>
     <sheet name="XRP" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$13:$C$22</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$13:$C$22</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$13:$D$22</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$13:$E$22</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$F$13:$F$22</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$G$13:$G$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$13:$D$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$13:$E$22</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$13:$F$22</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$13:$G$22</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>12p</t>
   </si>
@@ -72,12 +94,40 @@
   <si>
     <t>namecoin from https://coinmarketcap.com/currencies/namecoin/</t>
   </si>
+  <si>
+    <t>positve</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>Relative Sentiment</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Directionality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,10 +171,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,6 +283,237 @@
           <c:h val="0.83921809848713658"/>
         </c:manualLayout>
       </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="380860984"/>
+        <c:axId val="380861640"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>Neutral</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$30:$C$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.2937374406448342</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.18222684774608916</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.23131867541201884</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.1829328187614872</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.22066292044278768</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.22055771555147113</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.18465063188226011</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.17026905959478697</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.2429858784813918</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.30702976918123481</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FB12-40FB-A401-165514E880C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>Negative</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$30:$F$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-14.076358752007005</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-11.843824880155092</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-8.5417114343581044</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-22.017958105623794</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-12.914027762272422</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-23.5447545387239</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-1.9692751285734242</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-35.130496031667029</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-24.319630752159082</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-FB12-40FB-A401-165514E880C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>Positive</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$30:$E$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-15.135474708438727</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-20.266940439935659</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-19.549463796069759</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-23.284421734026566</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-12.098634223109428</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-26.888409952280316</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-18.353860267482787</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-16.961796688104396</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-8.6735264199935589</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FB12-40FB-A401-165514E880C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -592,6 +877,72 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v> </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FB12-40FB-A401-165514E880C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -600,6 +951,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="380860984"/>
         <c:axId val="380861640"/>
@@ -611,7 +963,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="380861640"/>
@@ -808,7 +1160,3180 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crypto Price Directionality</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BTC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1022303908092863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.532249873031992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0287439793791855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.1562064948717179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2279671331084869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.469269465662556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.213402473075393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6836737497458609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.5982750328294992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B141-48C9-BEFA-329DC82B4B4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ETH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$14:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6049678288193938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.956800057218468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3998553253053103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.3580246913580281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.5223062875022733E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.492581473262829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4548382149976913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0905224299815455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.9382148331564713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B141-48C9-BEFA-329DC82B4B4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XRP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$14:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1846153846153809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.424829779832015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3449860961352835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4638817336767764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3998162820071127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7058823529411669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.1286863270777543</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1465324384787607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3997788222283716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B141-48C9-BEFA-329DC82B4B4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.0979510244877577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.987197951672272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.454527826255573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6600296547341724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.307265052210617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.784090909090907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6169881161114326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.5598159509202434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B141-48C9-BEFA-329DC82B4B4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Namecoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$14:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.7164179104477499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5944055944055995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15.894039735099337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.236220472440953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19.298245614035078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8695652173912967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.229979466119094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.958677685950418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B141-48C9-BEFA-329DC82B4B4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="559718288"/>
+        <c:axId val="559721568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$30:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.44654044878997201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37895443210041702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35604036199348699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35924418541896902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3425660874807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39251515323264202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32647282231657199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36458303878127002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37079916573606803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B141-48C9-BEFA-329DC82B4B4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="416307544"/>
+        <c:axId val="416315088"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>negative</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$30:$B$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.31284419774950101</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.26880712613944302</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.27579147882032401</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.286121949138606</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.24396229335314101</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.27244341119947202</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.23918579930074099</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.30668343477203502</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.20294047927381201</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.23676164402726799</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-B141-48C9-BEFA-329DC82B4B4C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="559718288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559721568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559721568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559718288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="416315088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416307544"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="416307544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="416315088"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BTC vs. Positive</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sentiment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1022303908092863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.532249873031992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0287439793791855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.1562064948717179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2279671331084869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.469269465662556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.213402473075393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6836737497458609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.5982750328294992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F3A-41F3-9F0C-CD207A4B9102}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$31:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.135474708438727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0466557891736592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89984837885897895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6425519507902866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.580855366997215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.825421992543312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.67331975576931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7049961993781462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F3A-41F3-9F0C-CD207A4B9102}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="550689904"/>
+        <c:axId val="550690232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="550689904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550690232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550690232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550689904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ETH vs. Positive Sentiment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ETH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$14:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6049678288193938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.956800057218468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3998553253053103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.3580246913580281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.5223062875022733E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.492581473262829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4548382149976913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0905224299815455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.9382148331564713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88C6-4594-896F-7B7658D3CBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$31:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.135474708438727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0466557891736592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89984837885897895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6425519507902866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.580855366997215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.825421992543312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.67331975576931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7049961993781462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9812736036444392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88C6-4594-896F-7B7658D3CBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="638675440"/>
+        <c:axId val="638673800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="638675440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638673800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="638673800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638675440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>XRP vs Positive Sentiment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XRP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$14:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1846153846153809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.424829779832015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3449860961352835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4638817336767764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3998162820071127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7058823529411669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.1286863270777543</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1465324384787607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3997788222283716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A979-4025-A940-0A40D626DAAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$31:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.135474708438727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0466557891736592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89984837885897895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6425519507902866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.580855366997215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.825421992543312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.67331975576931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7049961993781462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9812736036444392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A979-4025-A940-0A40D626DAAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="642639696"/>
+        <c:axId val="642640352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="642639696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642640352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="642640352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642639696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LTC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Positive Sentiment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.0979510244877577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.987197951672272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.454527826255573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6600296547341724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.307265052210617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.784090909090907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6169881161114326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.5598159509202434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1250-4D8A-8E9F-B71E5CE56947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$31:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.135474708438727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0466557891736592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89984837885897895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6425519507902866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.580855366997215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.825421992543312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.67331975576931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7049961993781462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9812736036444392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1250-4D8A-8E9F-B71E5CE56947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="405163472"/>
+        <c:axId val="405158552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="405163472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405158552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="405158552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405163472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Namecoin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Positive Sentiment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Namecoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$14:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.7164179104477499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5944055944055995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15.894039735099337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.236220472440953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19.298245614035078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8695652173912967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.229979466119094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.958677685950418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0103-48C6-A8C0-6F420DD77D8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$31:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.135474708438727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0466557891736592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89984837885897895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6425519507902866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.580855366997215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.825421992543312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.67331975576931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7049961993781462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9812736036444392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0103-48C6-A8C0-6F420DD77D8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="416620184"/>
+        <c:axId val="416622152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="416620184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416622152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416622152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416620184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1364,20 +4889,3116 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>507999</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>84136</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>397399</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>555624</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165099</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>338665</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1397,6 +8018,222 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>359832</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A2C467-6C0F-499A-A63D-7E00FF1E2714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>74084</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>349251</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>159807</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC03A0B-09EC-49F2-8FE1-8CF261A23670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>370417</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3269F408-E56F-4169-9203-272482437FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>545040</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>125941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>206374</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>11641</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1AADF1-491B-4080-B5ED-05BC6237C344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>51857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>128057</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B414A5E9-E04E-46B4-89FB-EBDE067A6225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>178857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>64557</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C25BC25-005F-4E43-9B3C-ECE7AA51623B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1947,495 +8784,1021 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84E35BA-E282-44AF-A38C-C8FD92A2D4C7}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>42991</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>3819.51</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>267.32</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>0.19500000000000001</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>60.03</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>1.34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>42991</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>3938</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>279.63</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>0.20121</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>62.49</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>1.43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>42992</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>3483.86</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>235.01</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>0.17621000000000001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>50</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>1.51</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>42992</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>3519.7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>243</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>0.17857999999999999</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>51.57</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>1.27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>42992</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>3303.02</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>229.98</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>0.17418</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>47.21</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>42993</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>3343.58</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>229.83</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0.17</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>45.01</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0.92</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>42993</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>3760.5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>260.83999999999997</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>0.1865</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>52.8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>42994</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>3639.66</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>249.22</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>0.17879999999999999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>51.33</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>1.21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>42994</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>3700.94</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>254.43</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>0.18085000000000001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>52.16</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>1.21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>42995</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>3567.77</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>244.41</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>0.17651</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>49.26</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <f>(C2-$C$2)/($C$2)*100</f>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f>(D2-$D$2)/$D$2*100</f>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f>(E2-$E$2)/$E$2*100</f>
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f>(F2-$F$2)/$F$2*100</f>
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f>(G2-$G$2)/$G$2*100</f>
         <v>0</v>
       </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <f t="shared" ref="C14:C22" si="0">(C3-$C$2)/($C$2)*100</f>
         <v>3.1022303908092863</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f t="shared" ref="D14:D22" si="1">(D3-$D$2)/$D$2*100</f>
         <v>4.6049678288193938</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <f t="shared" ref="E14:E22" si="2">(E3-$E$2)/$E$2*100</f>
         <v>3.1846153846153809</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f t="shared" ref="F14:F22" si="3">(F3-$F$2)/$F$2*100</f>
         <v>4.0979510244877577</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f t="shared" ref="G14:G22" si="4">(G3-$G$2)/$G$2*100</f>
         <v>6.7164179104477499</v>
       </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>100*(C3-C2)/C2</f>
+        <v>3.1022303908092863</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:M22" si="5">100*(D3-D2)/D2</f>
+        <v>4.6049678288193938</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1846153846153809</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0979510244877577</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="5"/>
+        <v>6.7164179104477499</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>-8.787776442527969</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f t="shared" si="1"/>
         <v>-12.086637737543022</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
         <v>-9.6358974358974372</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f t="shared" si="3"/>
         <v>-16.708312510411464</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f t="shared" si="4"/>
         <v>12.686567164179099</v>
       </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ref="I15:I22" si="6">100*(C4-C3)/C3</f>
+        <v>-11.532249873031992</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.956800057218468</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="5"/>
+        <v>-12.424829779832015</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="5"/>
+        <v>-19.987197951672272</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5944055944055995</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>-7.8494361842225944</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="1"/>
         <v>-9.0977106090079278</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <f t="shared" si="2"/>
         <v>-8.4205128205128297</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <f t="shared" si="3"/>
         <v>-14.092953523238382</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <f t="shared" si="4"/>
         <v>-5.2238805970149302</v>
       </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0287439793791855</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3998553253053103</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3449860961352835</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1400000000000006</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.894039735099337</v>
+      </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>-13.522415178910387</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f t="shared" si="1"/>
         <v>-13.968277719587013</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f t="shared" si="2"/>
         <v>-10.67692307692308</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f t="shared" si="3"/>
         <v>-21.355988672330501</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <f t="shared" si="4"/>
         <v>-14.925373134328371</v>
       </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="6"/>
+        <v>-6.1562064948717179</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.3580246913580281</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.4638817336767764</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.454527826255573</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="5"/>
+        <v>-10.236220472440953</v>
+      </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>-12.460498859801394</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f t="shared" si="1"/>
         <v>-14.024390243902433</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <f t="shared" si="2"/>
         <v>-12.820512820512816</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <f t="shared" si="3"/>
         <v>-25.020822921872405</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <f t="shared" si="4"/>
         <v>-31.343283582089555</v>
       </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2279671331084869</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.5223062875022733E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.3998162820071127</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.6600296547341724</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="5"/>
+        <v>-19.298245614035078</v>
+      </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>-1.5449625737332857</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>-2.4240610504264617</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
         <v>-4.358974358974363</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f t="shared" si="3"/>
         <v>-12.043978010994509</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <f t="shared" si="4"/>
         <v>-27.313432835820901</v>
       </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="6"/>
+        <v>12.469269465662556</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>13.492581473262829</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="5"/>
+        <v>9.7058823529411669</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="5"/>
+        <v>17.307265052210617</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="5"/>
+        <v>5.8695652173912967</v>
+      </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>-4.7087191812562432</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>-6.7709112673948804</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <f t="shared" si="2"/>
         <v>-8.3076923076923173</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f t="shared" si="3"/>
         <v>-14.49275362318841</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <f t="shared" si="4"/>
         <v>-9.7014925373134417</v>
       </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.213402473075393</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.4548382149976913</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.1286863270777543</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.784090909090907</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="5"/>
+        <v>24.229979466119094</v>
+      </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>-3.1043249003144426</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <f t="shared" si="1"/>
         <v>-4.8219362561723722</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f t="shared" si="2"/>
         <v>-7.2564102564102537</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f t="shared" si="3"/>
         <v>-13.110111610861244</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <f t="shared" si="4"/>
         <v>-9.7014925373134417</v>
       </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6836737497458609</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0905224299815455</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1465324384787607</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6169881161114326</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>-6.5908977853180168</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <f t="shared" si="1"/>
         <v>-8.5702528804429132</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <f t="shared" si="2"/>
         <v>-9.4820512820512839</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <f t="shared" si="3"/>
         <v>-17.941029485257374</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <f t="shared" si="4"/>
         <v>-14.179104477611951</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.5982750328294992</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.9382148331564713</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.3997788222283716</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.5598159509202434</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.958677685950418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.44654044878997201</v>
+      </c>
+      <c r="B30">
+        <v>0.31284419774950101</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.2937374406448342</v>
+      </c>
+      <c r="E30" s="1">
+        <f>100*(A30-$A$30)/$A$30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <f>100*(B30-$B$30)/$B$30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.37895443210041702</v>
+      </c>
+      <c r="B31">
+        <v>0.26880712613944302</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.18222684774608916</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ref="E31:E39" si="7">100*(A31-$A$30)/$A$30</f>
+        <v>-15.135474708438727</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31:F39" si="8">100*(B31-$B$30)/$B$30</f>
+        <v>-14.076358752007005</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <f>100*(B31-B30)/B30</f>
+        <v>-14.076358752007005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.35604036199348699</v>
+      </c>
+      <c r="B32">
+        <v>0.27579147882032401</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.23131867541201884</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="7"/>
+        <v>-20.266940439935659</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="8"/>
+        <v>-11.843824880155092</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-15.135474708438727</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" ref="I32:I39" si="9">100*(B32-B31)/B31</f>
+        <v>2.598276608655782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.35924418541896902</v>
+      </c>
+      <c r="B33">
+        <v>0.286121949138606</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.1829328187614872</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="7"/>
+        <v>-19.549463796069759</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.5417114343581044</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-6.0466557891736592</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7457539886546725</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.3425660874807</v>
+      </c>
+      <c r="B34">
+        <v>0.24396229335314101</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.22066292044278768</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="7"/>
+        <v>-23.284421734026566</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="8"/>
+        <v>-22.017958105623794</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.89984837885897895</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="9"/>
+        <v>-14.734855509124744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.39251515323264202</v>
+      </c>
+      <c r="B35">
+        <v>0.27244341119947202</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.22055771555147113</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="7"/>
+        <v>-12.098634223109428</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="8"/>
+        <v>-12.914027762272422</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-4.6425519507902866</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="9"/>
+        <v>11.674393388778295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.32647282231657199</v>
+      </c>
+      <c r="B36">
+        <v>0.23918579930074099</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.18465063188226011</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="7"/>
+        <v>-26.888409952280316</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="8"/>
+        <v>-23.5447545387239</v>
+      </c>
+      <c r="H36" s="1">
+        <v>14.580855366997215</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="9"/>
+        <v>-12.207163224212147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.36458303878127002</v>
+      </c>
+      <c r="B37">
+        <v>0.30668343477203502</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.17026905959478697</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="7"/>
+        <v>-18.353860267482787</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.9692751285734242</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-16.825421992543312</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="9"/>
+        <v>28.219750365039719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.37079916573606803</v>
+      </c>
+      <c r="B38">
+        <v>0.20294047927381201</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.2429858784813918</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="7"/>
+        <v>-16.961796688104396</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="8"/>
+        <v>-35.130496031667029</v>
+      </c>
+      <c r="H38" s="1">
+        <v>11.67331975576931</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="9"/>
+        <v>-33.827374985328952</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.40780964498821598</v>
+      </c>
+      <c r="B39">
+        <v>0.23676164402726799</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.30702976918123481</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="7"/>
+        <v>-8.6735264199935589</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="8"/>
+        <v>-24.319630752159082</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.7049961993781462</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="9"/>
+        <v>16.665558726617412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="H40" s="1">
+        <v>9.9812736036444392</v>
       </c>
     </row>
   </sheetData>

--- a/crypto prices.xlsx
+++ b/crypto prices.xlsx
@@ -19,28 +19,6 @@
     <sheet name="LTC" sheetId="4" r:id="rId5"/>
     <sheet name="XRP" sheetId="5" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$13:$C$22</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$13:$C$22</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$13:$D$22</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$13:$E$22</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$F$13:$F$22</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$G$13:$G$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$13:$D$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$13:$E$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$13:$F$22</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$13:$G$22</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -176,7 +154,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -197,6 +175,833 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LTC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Positive Sentiment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.0979510244877577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.987197951672272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.454527826255573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6600296547341724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.307265052210617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.784090909090907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6169881161114326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.5598159509202434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1250-4D8A-8E9F-B71E5CE56947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$31:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-24.97056030808978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2495798459014451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7632099286053879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.0274123623505096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.605135880283953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20.774713336837848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.549467138836956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4185424544875267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1250-4D8A-8E9F-B71E5CE56947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="405163472"/>
+        <c:axId val="405158552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="405163472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405158552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="405158552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405163472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Namecoin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Positive Sentiment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Namecoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$14:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.7164179104477499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5944055944055995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15.894039735099337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.236220472440953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19.298245614035078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8695652173912967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.229979466119094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.958677685950418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0103-48C6-A8C0-6F420DD77D8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$31:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-24.97056030808978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2495798459014451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7632099286053879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.0274123623505096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.605135880283953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20.774713336837848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.549467138836956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4185424544875267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.569477247124816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0103-48C6-A8C0-6F420DD77D8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="416620184"/>
+        <c:axId val="416622152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="416620184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416622152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416622152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416620184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -302,6 +1107,75 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>Positive</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$30:$E$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-24.97056030808978</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-25.908113064972667</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-28.696346310402696</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-32.281075010801111</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-21.713444749569049</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-37.977252184131267</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-27.712817915740349</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-26.687393548722426</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-18.938634290580481</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FB12-40FB-A401-165514E880C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
                 <c:idx val="6"/>
                 <c:order val="6"/>
                 <c:tx>
@@ -321,8 +1195,8 @@
                 <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$30:$C$40</c15:sqref>
                         </c15:formulaRef>
@@ -364,7 +1238,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-FB12-40FB-A401-165514E880C2}"/>
                   </c:ext>
@@ -392,7 +1266,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$30:$F$39</c15:sqref>
@@ -435,78 +1309,9 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FB12-40FB-A401-165514E880C2}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:v>Positive</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$30:$E$39</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-15.135474708438727</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-20.266940439935659</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-19.549463796069759</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-23.284421734026566</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-12.098634223109428</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-26.888409952280316</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>-18.353860267482787</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>-16.961796688104396</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-8.6735264199935589</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-FB12-40FB-A401-165514E880C2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1160,7 +1965,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1621,31 +2426,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.44654044878997201</c:v>
+                  <c:v>0.507860274</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37895443210041702</c:v>
+                  <c:v>0.381044718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35604036199348699</c:v>
+                  <c:v>0.37628326000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35924418541896902</c:v>
+                  <c:v>0.36212293099999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3425660874807</c:v>
+                  <c:v>0.34391751799999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39251515323264202</c:v>
+                  <c:v>0.397586314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32647282231657199</c:v>
+                  <c:v>0.31498889699999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36458303878127002</c:v>
+                  <c:v>0.36711788099999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37079916573606803</c:v>
+                  <c:v>0.37232560399999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,6 +2693,7 @@
         <c:axId val="416315088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1951,6 +2757,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="416315088"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2032,7 +2839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2216,28 +3023,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.135474708438727</c:v>
+                  <c:v>-24.97056030808978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0466557891736592</c:v>
+                  <c:v>-1.2495798459014451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89984837885897895</c:v>
+                  <c:v>-3.7632099286053879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.6425519507902866</c:v>
+                  <c:v>-5.0274123623505096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.580855366997215</c:v>
+                  <c:v>15.605135880283953</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-16.825421992543312</c:v>
+                  <c:v>-20.774713336837848</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.67331975576931</c:v>
+                  <c:v>16.549467138836956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7049961993781462</c:v>
+                  <c:v>1.4185424544875267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,7 +3250,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2615,39 +3422,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$31:$H$40</c:f>
+              <c:f>Sheet1!$H$31:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.135474708438727</c:v>
+                  <c:v>-24.97056030808978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0466557891736592</c:v>
+                  <c:v>-1.2495798459014451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89984837885897895</c:v>
+                  <c:v>-3.7632099286053879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.6425519507902866</c:v>
+                  <c:v>-5.0274123623505096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.580855366997215</c:v>
+                  <c:v>15.605135880283953</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-16.825421992543312</c:v>
+                  <c:v>-20.774713336837848</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.67331975576931</c:v>
+                  <c:v>16.549467138836956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7049961993781462</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9812736036444392</c:v>
+                  <c:v>1.4185424544875267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,7 +3657,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3025,39 +3829,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$31:$H$40</c:f>
+              <c:f>Sheet1!$H$31:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.135474708438727</c:v>
+                  <c:v>-24.97056030808978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0466557891736592</c:v>
+                  <c:v>-1.2495798459014451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89984837885897895</c:v>
+                  <c:v>-3.7632099286053879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.6425519507902866</c:v>
+                  <c:v>-5.0274123623505096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.580855366997215</c:v>
+                  <c:v>15.605135880283953</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-16.825421992543312</c:v>
+                  <c:v>-20.774713336837848</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.67331975576931</c:v>
+                  <c:v>16.549467138836956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7049961993781462</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9812736036444392</c:v>
+                  <c:v>1.4185424544875267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3184,836 +3985,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="642639696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>LTC</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. Positive Sentiment</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LTC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$14:$L$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.0979510244877577</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-19.987197951672272</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8.454527826255573</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.6600296547341724</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.307265052210617</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.784090909090907</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6169881161114326</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-5.5598159509202434</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1250-4D8A-8E9F-B71E5CE56947}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>positive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$31:$H$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-15.135474708438727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6.0466557891736592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89984837885897895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.6425519507902866</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.580855366997215</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-16.825421992543312</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.67331975576931</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7049961993781462</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9812736036444392</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1250-4D8A-8E9F-B71E5CE56947}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="405163472"/>
-        <c:axId val="405158552"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="405163472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="405158552"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="405158552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="405163472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Namecoin</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. Positive Sentiment</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Namecoin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$14:$M$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6.7164179104477499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5944055944055995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-15.894039735099337</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10.236220472440953</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-19.298245614035078</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8695652173912967</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.229979466119094</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.958677685950418</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0103-48C6-A8C0-6F420DD77D8F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>positive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$31:$H$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-15.135474708438727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6.0466557891736592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89984837885897895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.6425519507902866</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.580855366997215</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-16.825421992543312</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.67331975576931</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7049961993781462</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9812736036444392</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0103-48C6-A8C0-6F420DD77D8F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="416620184"/>
-        <c:axId val="416622152"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="416620184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="416622152"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="416622152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="416620184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4890,7 +4861,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4998,6 +4969,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5008,6 +4984,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5039,6 +5020,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5094,23 +5078,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5280,17 +5263,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5359,20 +5331,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5922,7 +5893,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6030,11 +6001,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6045,11 +6011,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6081,9 +6042,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6139,22 +6097,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6324,6 +6283,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6392,19 +6362,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7987,6 +7958,78 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>51857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>128057</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B414A5E9-E04E-46B4-89FB-EBDE067A6225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>128057</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C25BC25-005F-4E43-9B3C-ECE7AA51623B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -8017,7 +8060,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8053,78 +8096,6 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>74084</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>83607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>349251</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>159807</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC03A0B-09EC-49F2-8FE1-8CF261A23670}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>370417</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3269F408-E56F-4169-9203-272482437FEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
@@ -8133,23 +8104,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>545040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>125941</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>206374</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>11641</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1AADF1-491B-4080-B5ED-05BC6237C344}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC03A0B-09EC-49F2-8FE1-8CF261A23670}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8169,23 +8140,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>51857</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>30690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>128057</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>106890</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B414A5E9-E04E-46B4-89FB-EBDE067A6225}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3269F408-E56F-4169-9203-272482437FEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8205,23 +8176,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>178857</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>407457</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>275167</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>64557</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>68790</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C25BC25-005F-4E43-9B3C-ECE7AA51623B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1AADF1-491B-4080-B5ED-05BC6237C344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8784,10 +8755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84E35BA-E282-44AF-A38C-C8FD92A2D4C7}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9537,9 +9508,9 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.44654044878997201</v>
-      </c>
-      <c r="B30">
+        <v>0.507860274</v>
+      </c>
+      <c r="B30" s="1">
         <v>0.31284419774950101</v>
       </c>
       <c r="C30" s="1">
@@ -9562,20 +9533,20 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.37895443210041702</v>
-      </c>
-      <c r="B31">
+        <v>0.381044718</v>
+      </c>
+      <c r="B31" s="1">
         <v>0.26880712613944302</v>
       </c>
       <c r="C31" s="1">
         <v>0.18222684774608916</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ref="E31:E39" si="7">100*(A31-$A$30)/$A$30</f>
-        <v>-15.135474708438727</v>
+        <f>100*(A31-$A$30)/$A$30</f>
+        <v>-24.97056030808978</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" ref="F31:F39" si="8">100*(B31-$B$30)/$B$30</f>
+        <f t="shared" ref="F31:F39" si="7">100*(B31-$B$30)/$B$30</f>
         <v>-14.076358752007005</v>
       </c>
       <c r="H31" s="1">
@@ -9588,218 +9559,277 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.35604036199348699</v>
-      </c>
-      <c r="B32">
+        <v>0.37628326000000001</v>
+      </c>
+      <c r="B32" s="1">
         <v>0.27579147882032401</v>
       </c>
       <c r="C32" s="1">
         <v>0.23131867541201884</v>
       </c>
       <c r="E32" s="1">
+        <f>100*(A32-$A$30)/$A$30</f>
+        <v>-25.908113064972667</v>
+      </c>
+      <c r="F32" s="1">
         <f t="shared" si="7"/>
-        <v>-20.266940439935659</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="8"/>
         <v>-11.843824880155092</v>
       </c>
       <c r="H32" s="1">
-        <v>-15.135474708438727</v>
+        <f>100*(A31-A30)/A30</f>
+        <v>-24.97056030808978</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ref="I32:I39" si="9">100*(B32-B31)/B31</f>
+        <f t="shared" ref="I32:I39" si="8">100*(B32-B31)/B31</f>
         <v>2.598276608655782</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.35924418541896902</v>
-      </c>
-      <c r="B33">
+        <v>0.36212293099999998</v>
+      </c>
+      <c r="B33" s="1">
         <v>0.286121949138606</v>
       </c>
       <c r="C33" s="1">
         <v>0.1829328187614872</v>
       </c>
       <c r="E33" s="1">
+        <f>100*(A33-$A$30)/$A$30</f>
+        <v>-28.696346310402696</v>
+      </c>
+      <c r="F33" s="1">
         <f t="shared" si="7"/>
-        <v>-19.549463796069759</v>
-      </c>
-      <c r="F33" s="1">
+        <v>-8.5417114343581044</v>
+      </c>
+      <c r="H33" s="1">
+        <f>100*(A32-A31)/A31</f>
+        <v>-1.2495798459014451</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" si="8"/>
-        <v>-8.5417114343581044</v>
-      </c>
-      <c r="H33" s="1">
-        <v>-6.0466557891736592</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="9"/>
         <v>3.7457539886546725</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.3425660874807</v>
-      </c>
-      <c r="B34">
+        <v>0.34391751799999998</v>
+      </c>
+      <c r="B34" s="1">
         <v>0.24396229335314101</v>
       </c>
       <c r="C34" s="1">
         <v>0.22066292044278768</v>
       </c>
       <c r="E34" s="1">
+        <f>100*(A34-$A$30)/$A$30</f>
+        <v>-32.281075010801111</v>
+      </c>
+      <c r="F34" s="1">
         <f t="shared" si="7"/>
-        <v>-23.284421734026566</v>
-      </c>
-      <c r="F34" s="1">
+        <v>-22.017958105623794</v>
+      </c>
+      <c r="H34" s="1">
+        <f>100*(A33-A32)/A32</f>
+        <v>-3.7632099286053879</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" si="8"/>
-        <v>-22.017958105623794</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.89984837885897895</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="9"/>
         <v>-14.734855509124744</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.39251515323264202</v>
-      </c>
-      <c r="B35">
+        <v>0.397586314</v>
+      </c>
+      <c r="B35" s="1">
         <v>0.27244341119947202</v>
       </c>
       <c r="C35" s="1">
         <v>0.22055771555147113</v>
       </c>
       <c r="E35" s="1">
+        <f>100*(A35-$A$30)/$A$30</f>
+        <v>-21.713444749569049</v>
+      </c>
+      <c r="F35" s="1">
         <f t="shared" si="7"/>
-        <v>-12.098634223109428</v>
-      </c>
-      <c r="F35" s="1">
+        <v>-12.914027762272422</v>
+      </c>
+      <c r="H35" s="1">
+        <f>100*(A34-A33)/A33</f>
+        <v>-5.0274123623505096</v>
+      </c>
+      <c r="I35" s="1">
         <f t="shared" si="8"/>
-        <v>-12.914027762272422</v>
-      </c>
-      <c r="H35" s="1">
-        <v>-4.6425519507902866</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="9"/>
         <v>11.674393388778295</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.32647282231657199</v>
-      </c>
-      <c r="B36">
+        <v>0.31498889699999999</v>
+      </c>
+      <c r="B36" s="1">
         <v>0.23918579930074099</v>
       </c>
       <c r="C36" s="1">
         <v>0.18465063188226011</v>
       </c>
       <c r="E36" s="1">
+        <f>100*(A36-$A$30)/$A$30</f>
+        <v>-37.977252184131267</v>
+      </c>
+      <c r="F36" s="1">
         <f t="shared" si="7"/>
-        <v>-26.888409952280316</v>
-      </c>
-      <c r="F36" s="1">
+        <v>-23.5447545387239</v>
+      </c>
+      <c r="H36" s="1">
+        <f>100*(A35-A34)/A34</f>
+        <v>15.605135880283953</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" si="8"/>
-        <v>-23.5447545387239</v>
-      </c>
-      <c r="H36" s="1">
-        <v>14.580855366997215</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="9"/>
         <v>-12.207163224212147</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.36458303878127002</v>
-      </c>
-      <c r="B37">
+        <v>0.36711788099999998</v>
+      </c>
+      <c r="B37" s="1">
         <v>0.30668343477203502</v>
       </c>
       <c r="C37" s="1">
         <v>0.17026905959478697</v>
       </c>
       <c r="E37" s="1">
+        <f>100*(A37-$A$30)/$A$30</f>
+        <v>-27.712817915740349</v>
+      </c>
+      <c r="F37" s="1">
         <f t="shared" si="7"/>
-        <v>-18.353860267482787</v>
-      </c>
-      <c r="F37" s="1">
+        <v>-1.9692751285734242</v>
+      </c>
+      <c r="H37" s="1">
+        <f>100*(A36-A35)/A35</f>
+        <v>-20.774713336837848</v>
+      </c>
+      <c r="I37" s="1">
         <f t="shared" si="8"/>
-        <v>-1.9692751285734242</v>
-      </c>
-      <c r="H37" s="1">
-        <v>-16.825421992543312</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="9"/>
         <v>28.219750365039719</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.37079916573606803</v>
-      </c>
-      <c r="B38">
+        <v>0.37232560399999998</v>
+      </c>
+      <c r="B38" s="1">
         <v>0.20294047927381201</v>
       </c>
       <c r="C38" s="1">
         <v>0.2429858784813918</v>
       </c>
       <c r="E38" s="1">
+        <f>100*(A38-$A$30)/$A$30</f>
+        <v>-26.687393548722426</v>
+      </c>
+      <c r="F38" s="1">
         <f t="shared" si="7"/>
-        <v>-16.961796688104396</v>
-      </c>
-      <c r="F38" s="1">
+        <v>-35.130496031667029</v>
+      </c>
+      <c r="H38" s="1">
+        <f>100*(A37-A36)/A36</f>
+        <v>16.549467138836956</v>
+      </c>
+      <c r="I38" s="1">
         <f t="shared" si="8"/>
-        <v>-35.130496031667029</v>
-      </c>
-      <c r="H38" s="1">
-        <v>11.67331975576931</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="9"/>
         <v>-33.827374985328952</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.40780964498821598</v>
-      </c>
-      <c r="B39">
+        <v>0.41167847400000002</v>
+      </c>
+      <c r="B39" s="1">
         <v>0.23676164402726799</v>
       </c>
       <c r="C39" s="1">
         <v>0.30702976918123481</v>
       </c>
       <c r="E39" s="1">
+        <f>100*(A39-$A$30)/$A$30</f>
+        <v>-18.938634290580481</v>
+      </c>
+      <c r="F39" s="1">
         <f t="shared" si="7"/>
-        <v>-8.6735264199935589</v>
-      </c>
-      <c r="F39" s="1">
+        <v>-24.319630752159082</v>
+      </c>
+      <c r="H39" s="1">
+        <f>100*(A38-A37)/A37</f>
+        <v>1.4185424544875267</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" si="8"/>
-        <v>-24.319630752159082</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1.7049961993781462</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="9"/>
         <v>16.665558726617412</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40"/>
+      <c r="A40">
+        <v>0.33984150000000002</v>
+      </c>
       <c r="H40" s="1">
-        <v>9.9812736036444392</v>
-      </c>
+        <f>100*(A39-A38)/A38</f>
+        <v>10.569477247124816</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <f>100*(A40-A39)/A39</f>
+        <v>-17.449776594342893</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
